--- a/data/RND_Todos.xlsx
+++ b/data/RND_Todos.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29022"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="51" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28486927-638A-4BDD-A540-B5A0917C9B6B}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{252D3C94-FA86-4E30-9158-F87BF8333896}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Todos" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -59,6 +59,21 @@
     <t>CREATED_DATE</t>
   </si>
   <si>
+    <t>Sample witnessing and submission to be done to PVEL for retesting</t>
+  </si>
+  <si>
+    <t>GK</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
     <t>TODO_ID</t>
   </si>
   <si>
@@ -69,6 +84,9 @@
   </si>
   <si>
     <t>MEETING_DATE</t>
+  </si>
+  <si>
+    <t>after receiving new component we will submit the sample in july</t>
   </si>
   <si>
     <t>ATTENDEES</t>
@@ -87,7 +105,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +119,17 @@
       <name val="Aptos Narrow"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Aptos Display"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -110,7 +139,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -118,13 +147,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -499,6 +549,26 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:8" ht="115.5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -506,10 +576,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8167951-320E-48E2-BC08-F697F42D5DFF}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -519,19 +589,27 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="130.5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +622,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -556,21 +634,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/data/RND_Todos.xlsx
+++ b/data/RND_Todos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29022"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="59" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{252D3C94-FA86-4E30-9158-F87BF8333896}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8984E873-9477-4153-BAC7-3D2CA4E5F16B}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -175,6 +175,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,7 +513,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -568,6 +569,12 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
+      <c r="G2" s="4">
+        <v>45838</v>
+      </c>
+      <c r="H2" s="4">
+        <v>45805</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -579,7 +586,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -607,6 +614,9 @@
     <row r="2" spans="1:5" ht="130.5">
       <c r="A2">
         <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>45835</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>17</v>

--- a/data/RND_Todos.xlsx
+++ b/data/RND_Todos.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29022"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="66" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8984E873-9477-4153-BAC7-3D2CA4E5F16B}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33CF4D37-E01A-4B75-B183-B94B2D819065}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Todos" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -59,21 +59,6 @@
     <t>CREATED_DATE</t>
   </si>
   <si>
-    <t>Sample witnessing and submission to be done to PVEL for retesting</t>
-  </si>
-  <si>
-    <t>GK</t>
-  </si>
-  <si>
-    <t>In progress</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
     <t>TODO_ID</t>
   </si>
   <si>
@@ -86,7 +71,7 @@
     <t>MEETING_DATE</t>
   </si>
   <si>
-    <t>after receiving new component we will submit the sample in july</t>
+    <t>UPDATED_BY</t>
   </si>
   <si>
     <t>ATTENDEES</t>
@@ -98,7 +83,10 @@
     <t>NOTES</t>
   </si>
   <si>
-    <t xml:space="preserve">, ,  </t>
+    <t>CREATED_BY</t>
+  </si>
+  <si>
+    <t>CREATED_AT</t>
   </si>
 </sst>
 </file>
@@ -513,7 +501,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -550,31 +538,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="115.5">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4">
-        <v>45838</v>
-      </c>
-      <c r="H2" s="4">
-        <v>45805</v>
-      </c>
+    <row r="2" spans="1:8">
+      <c r="B2" s="2"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -583,44 +550,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8167951-320E-48E2-BC08-F697F42D5DFF}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="130.5">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>45835</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>17</v>
-      </c>
+    <row r="2" spans="1:6">
+      <c r="B2" s="4"/>
+      <c r="C2" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -629,10 +594,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDF3E0B-7142-4277-A2EB-4CF707D6D9C9}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -640,25 +605,28 @@
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>21</v>
+      <c r="F1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data/RND_Todos.xlsx
+++ b/data/RND_Todos.xlsx
@@ -1,49 +1,122 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29022"/>
+  <workbookPr/>
+  <xr:revisionPtr revIDLastSave="86" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33CF4D37-E01A-4B75-B183-B94B2D819065}"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Todos" sheetId="1" r:id="rId1"/>
     <sheet name="Updates" sheetId="2" r:id="rId2"/>
     <sheet name="Meetings" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ISSUE</t>
+  </si>
+  <si>
+    <t>RESPONSIBILITY</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>PRIORITY</t>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+  </si>
+  <si>
+    <t>DUE_DATE</t>
+  </si>
+  <si>
+    <t>CREATED_DATE</t>
+  </si>
+  <si>
+    <t>TODO_ID</t>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>MEETING_DATE</t>
+  </si>
+  <si>
+    <t>UPDATED_BY</t>
+  </si>
+  <si>
+    <t>ATTENDEES</t>
+  </si>
+  <si>
+    <t>TOPICS_DISCUSSED</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>CREATED_BY</t>
+  </si>
+  <si>
+    <t>CREATED_AT</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Aptos Display"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -54,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -62,18 +135,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -88,44 +192,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="145F82"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="E87331"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="186C24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Aptos Display" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -153,14 +257,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -188,6 +309,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -199,180 +337,136 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
+            <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
     <a:lnDef>
       <a:spPr/>
       <a:bodyPr/>
@@ -394,44 +488,148 @@
     </a:lnDef>
   </a:objectDefaults>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
-  <sheetData/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
-  </ignoredErrors>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" s="2"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8167951-320E-48E2-BC08-F697F42D5DFF}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetData/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
-  </ignoredErrors>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" s="4"/>
+      <c r="C2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDF3E0B-7142-4277-A2EB-4CF707D6D9C9}">
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetData/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
-  </ignoredErrors>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>